--- a/biology/Médecine/Muscle_droit_supérieur_de_l'œil/Muscle_droit_supérieur_de_l'œil.xlsx
+++ b/biology/Médecine/Muscle_droit_supérieur_de_l'œil/Muscle_droit_supérieur_de_l'œil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscle_droit_sup%C3%A9rieur_de_l%27%C5%93il</t>
+          <t>Muscle_droit_supérieur_de_l'œil</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle droit supérieur du bulbe de l'œil ou muscle droit supérieur de l'œil (Musculus rectus superior) est un des quatre muscles droits de l'œil. Il permet par sa contraction d'orienter le regard en haut.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muscle_droit_sup%C3%A9rieur_de_l%27%C5%93il</t>
+          <t>Muscle_droit_supérieur_de_l'œil</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Origine dorsale: il nait de le languette supérieure du ligament de Zinn fixé sur le corps du sphénoïde.
 Trajet: il se dirige en avant et en haut en s'élargissant pour venir se réfléchir sur globe de l'œil et se porter en avant et en bas.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Muscle_droit_sup%C3%A9rieur_de_l%27%C5%93il</t>
+          <t>Muscle_droit_supérieur_de_l'œil</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est innervé par la branche supérieure  du nerf oculomoteur, 3e nerf crânien qui l'aborde par sa face inférieure.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Muscle_droit_sup%C3%A9rieur_de_l%27%C5%93il</t>
+          <t>Muscle_droit_supérieur_de_l'œil</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Vascularisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est vascularisé par une branche de l'artère musculaire supérieure branche de l'artère ophtalmique.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Muscle_droit_sup%C3%A9rieur_de_l%27%C5%93il</t>
+          <t>Muscle_droit_supérieur_de_l'œil</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Action</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En faisant tourner la partie antérieure du globe oculaire vers le haut, il porte le regard vers le haut.
 </t>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Muscle_droit_sup%C3%A9rieur_de_l%27%C5%93il</t>
+          <t>Muscle_droit_supérieur_de_l'œil</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,7 +656,9 @@
           <t>Rapports</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est en rapport, en dessus avec le muscle oblique supérieur de l'œil, le muscle releveur de la paupière supérieure puis avec la paroi supérieure de l'orbite, en dessous, en arrière avec le nerf optique, en avant avec le globe oculaire.
 </t>
